--- a/dist/data/profiles/xlsx/bluff/profile 21-7 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 21-7 graph.xlsx
@@ -1928,11 +1928,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43538094"/>
-        <c:axId val="50163034"/>
+        <c:axId val="59436742"/>
+        <c:axId val="64168334"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43538094"/>
+        <c:axId val="59436742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,12 +2013,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50163034"/>
+        <c:crossAx val="64168334"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50163034"/>
+        <c:axId val="64168334"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2108,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43538094"/>
+        <c:crossAx val="59436742"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
